--- a/fhir/ValueSet-sor-organization-specialty.xlsx
+++ b/fhir/ValueSet-sor-organization-specialty.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="146">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -132,6 +132,54 @@
   </si>
   <si>
     <t>http://snomed.info/sct/554471000005108/version/20150731</t>
+  </si>
+  <si>
+    <t>658171000005102</t>
+  </si>
+  <si>
+    <t>hjemmepleje</t>
+  </si>
+  <si>
+    <t>658161000005107</t>
+  </si>
+  <si>
+    <t>hjemmesygepleje</t>
+  </si>
+  <si>
+    <t>658151000005105</t>
+  </si>
+  <si>
+    <t>sundhedsfremme og forebyggelse</t>
+  </si>
+  <si>
+    <t>658191000005101</t>
+  </si>
+  <si>
+    <t>sundhedspleje</t>
+  </si>
+  <si>
+    <t>658201000005103</t>
+  </si>
+  <si>
+    <t>kommunal tandpleje</t>
+  </si>
+  <si>
+    <t>658141000005108</t>
+  </si>
+  <si>
+    <t>genoptræning efter hospitalsophold</t>
+  </si>
+  <si>
+    <t>658181000005104</t>
+  </si>
+  <si>
+    <t>hjælpemiddelområdet</t>
+  </si>
+  <si>
+    <t>2903041000005106</t>
+  </si>
+  <si>
+    <t>det kommunale omsorgs-, social- og sundhedsområde</t>
   </si>
   <si>
     <t>394537008</t>
@@ -779,7 +827,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1159,18 +1207,82 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B48" t="s" s="2">
-        <v>129</v>
+      <c r="B56" t="s" s="2">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-sor-organization-specialty.xlsx
+++ b/fhir/ValueSet-sor-organization-specialty.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-sor-organization-specialty.xlsx
+++ b/fhir/ValueSet-sor-organization-specialty.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-sor-organization-specialty.xlsx
+++ b/fhir/ValueSet-sor-organization-specialty.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-sor-organization-specialty.xlsx
+++ b/fhir/ValueSet-sor-organization-specialty.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-sor-organization-specialty.xlsx
+++ b/fhir/ValueSet-sor-organization-specialty.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-sor-organization-specialty.xlsx
+++ b/fhir/ValueSet-sor-organization-specialty.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-sor-organization-specialty.xlsx
+++ b/fhir/ValueSet-sor-organization-specialty.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-sor-organization-specialty.xlsx
+++ b/fhir/ValueSet-sor-organization-specialty.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-sor-organization-specialty.xlsx
+++ b/fhir/ValueSet-sor-organization-specialty.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
